--- a/bases/defesa.xlsx
+++ b/bases/defesa.xlsx
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,6 +2206,100 @@
       </c>
       <c r="O38">
         <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>54</v>
+      </c>
+      <c r="J39">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>71</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>22</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>44</v>
+      </c>
+      <c r="J40">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>43</v>
+      </c>
+      <c r="L40">
+        <v>76</v>
+      </c>
+      <c r="M40">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>21</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
